--- a/Design/UseCases/UseCase.xlsx
+++ b/Design/UseCases/UseCase.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final\InsurancePortal\Design\UseCases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Quote" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>ACTORS =&gt;</t>
   </si>
@@ -238,9 +233,6 @@
     <t>Insurance_END_DT</t>
   </si>
   <si>
-    <t>Persist in Customer table</t>
-  </si>
-  <si>
     <t>CustomerVehicle</t>
   </si>
   <si>
@@ -248,6 +240,9 @@
   </si>
   <si>
     <t>CustomerEmail</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -365,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +778,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,7 +851,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,67 +899,70 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -991,12 +989,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
